--- a/storage/app/exp/17/2022/форма по ожидаемой выручке.xlsx
+++ b/storage/app/exp/17/2022/форма по ожидаемой выручке.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A6F7F8-5AA5-6848-A619-8603938B3758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE3AB8D-1423-D449-B4D0-EA3DF002ECF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="600" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -513,7 +513,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
